--- a/Diagnostico_EB/Insumos/Prom_ Puntos_corte.xlsx
+++ b/Diagnostico_EB/Insumos/Prom_ Puntos_corte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Work\Julio_2018\Diagnostico_EB\Insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_PsicometriaYEvaluacion\Diagnostico_EB\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1215,10 +1215,10 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="17" topLeftCell="C18" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="17" topLeftCell="C27" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="R6" sqref="R6"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Diagnostico_EB/Insumos/Prom_ Puntos_corte.xlsx
+++ b/Diagnostico_EB/Insumos/Prom_ Puntos_corte.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Work\Julio_2018\Diagnostico_EB\Insumos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="8685"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Puntos_corte!$A$1:$AA$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Puntos_corte!$A$1:$B$40</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -356,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +716,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -872,7 +883,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -882,6 +893,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,10 +914,11 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -922,7 +935,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1202,7 +1214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,15 +1225,15 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="9" customWidth="1"/>
     <col min="10" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
@@ -1251,7 +1263,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1334,7 +1346,7 @@
       <c r="H2">
         <v>60</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="9">
         <v>83</v>
       </c>
       <c r="J2">
@@ -1417,7 +1429,7 @@
       <c r="H3" s="2">
         <v>60</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>100</v>
       </c>
       <c r="J3" s="2">
@@ -1498,7 +1510,7 @@
       <c r="H4" s="4">
         <v>60</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="9">
         <v>62</v>
       </c>
       <c r="J4" s="4">
@@ -1581,7 +1593,7 @@
       <c r="H5">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>100</v>
       </c>
       <c r="J5">
@@ -1664,7 +1676,7 @@
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>62</v>
       </c>
       <c r="J6">
@@ -1747,7 +1759,7 @@
       <c r="H7">
         <v>60</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>64</v>
       </c>
       <c r="J7">
@@ -1830,7 +1842,7 @@
       <c r="H8">
         <v>60</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="9">
         <v>61</v>
       </c>
       <c r="J8">
@@ -1913,7 +1925,7 @@
       <c r="H9" s="3">
         <v>60</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>60</v>
       </c>
       <c r="J9" s="3">
@@ -1996,7 +2008,7 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>67</v>
       </c>
       <c r="J10">
@@ -2079,7 +2091,7 @@
       <c r="H11">
         <v>60</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>75</v>
       </c>
       <c r="J11">
@@ -2162,7 +2174,7 @@
       <c r="H12">
         <v>60</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>60</v>
       </c>
       <c r="J12">
@@ -2245,7 +2257,7 @@
       <c r="H13" s="3">
         <v>60</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>67</v>
       </c>
       <c r="J13" s="3">
@@ -2328,7 +2340,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>60</v>
       </c>
       <c r="J14">
@@ -2411,7 +2423,7 @@
       <c r="H15">
         <v>60</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <v>60</v>
       </c>
       <c r="J15">
@@ -2494,7 +2506,7 @@
       <c r="H16">
         <v>60</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
         <v>60</v>
       </c>
       <c r="J16">
@@ -2577,7 +2589,7 @@
       <c r="H17" s="3">
         <v>60</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="9">
         <v>75</v>
       </c>
       <c r="J17" s="3">
@@ -2660,7 +2672,7 @@
       <c r="H18" s="2">
         <v>60</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="9">
         <v>100</v>
       </c>
       <c r="J18" s="2">
@@ -2740,7 +2752,7 @@
       <c r="H19" s="2">
         <v>60</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="9">
         <v>100</v>
       </c>
       <c r="J19" s="2">
@@ -2820,7 +2832,7 @@
       <c r="H20" s="2">
         <v>60</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="9">
         <v>100</v>
       </c>
       <c r="J20" s="2">
@@ -2900,7 +2912,7 @@
       <c r="H21" s="2">
         <v>60</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="9">
         <v>100</v>
       </c>
       <c r="J21" s="2">
@@ -2980,7 +2992,7 @@
       <c r="H22" s="2">
         <v>60</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="9">
         <v>100</v>
       </c>
       <c r="J22" s="2">
@@ -3060,7 +3072,7 @@
       <c r="H23" s="2">
         <v>60</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="9">
         <v>100</v>
       </c>
       <c r="J23" s="2">
@@ -3140,7 +3152,7 @@
       <c r="H24" s="2">
         <v>60</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="9">
         <v>100</v>
       </c>
       <c r="J24" s="2">
@@ -3220,7 +3232,7 @@
       <c r="H25" s="2">
         <v>60</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="9">
         <v>100</v>
       </c>
       <c r="J25" s="2">
@@ -3300,7 +3312,7 @@
       <c r="H26" s="2">
         <v>60</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="9">
         <v>100</v>
       </c>
       <c r="J26" s="2">
@@ -3381,7 +3393,7 @@
       <c r="H27" s="2">
         <v>60</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="9">
         <v>100</v>
       </c>
       <c r="J27" s="2">
@@ -3462,7 +3474,7 @@
       <c r="H28" s="2">
         <v>60</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="9">
         <v>100</v>
       </c>
       <c r="J28" s="2">
@@ -3543,7 +3555,7 @@
       <c r="H29">
         <v>60</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="9">
         <v>67</v>
       </c>
       <c r="J29">
@@ -3626,7 +3638,7 @@
       <c r="H30">
         <v>60</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="9">
         <v>63</v>
       </c>
       <c r="J30">
@@ -3709,7 +3721,7 @@
       <c r="H31" s="2">
         <v>60</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="9">
         <v>100</v>
       </c>
       <c r="J31" s="2">
@@ -3790,7 +3802,7 @@
       <c r="H32">
         <v>60</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="9">
         <v>79</v>
       </c>
       <c r="J32">
@@ -3873,7 +3885,7 @@
       <c r="H33">
         <v>60</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="9">
         <v>62</v>
       </c>
       <c r="J33">
@@ -3956,7 +3968,7 @@
       <c r="H34" s="3">
         <v>60</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="9">
         <v>61</v>
       </c>
       <c r="J34" s="3">
@@ -4039,7 +4051,7 @@
       <c r="H35">
         <v>60</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="9">
         <v>62</v>
       </c>
       <c r="J35">
@@ -4122,7 +4134,7 @@
       <c r="H36">
         <v>60</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="9">
         <v>60</v>
       </c>
       <c r="J36">
@@ -4205,7 +4217,7 @@
       <c r="H37">
         <v>60</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="9">
         <v>62</v>
       </c>
       <c r="J37">
@@ -4288,7 +4300,7 @@
       <c r="H38">
         <v>60</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="9">
         <v>60</v>
       </c>
       <c r="J38">
@@ -4371,7 +4383,7 @@
       <c r="H39">
         <v>60</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="9">
         <v>72</v>
       </c>
       <c r="J39">
@@ -4454,7 +4466,7 @@
       <c r="H40" s="3">
         <v>60</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="9">
         <v>77</v>
       </c>
       <c r="J40" s="3">
